--- a/data/trans_orig/cron_index-Edad-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07910668172398193</v>
+        <v>0.07955636904623234</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09217742224160538</v>
+        <v>0.08984633206432202</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1147464598974337</v>
+        <v>0.1133605267293851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.15842908878128</v>
+        <v>0.1581290902681203</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1013327745658717</v>
+        <v>0.1028263544501484</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1024300376598915</v>
+        <v>0.1036061676767566</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1184263530683319</v>
+        <v>0.1210946668605591</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1542822055531859</v>
+        <v>0.1542693877997094</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09783863045384684</v>
+        <v>0.09824463893708117</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1064634760468987</v>
+        <v>0.1038865459703343</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1277508645205948</v>
+        <v>0.1244877189885688</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1788386364219777</v>
+        <v>0.1741241804392323</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1314984883199625</v>
+        <v>0.1355458631046303</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1592335637034655</v>
+        <v>0.1561284127136932</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1868266264394133</v>
+        <v>0.1859389423399335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3893568099246073</v>
+        <v>0.388334097384962</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1575615862813271</v>
+        <v>0.1608417135589178</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1746444162691725</v>
+        <v>0.1770766325476892</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1899243798721436</v>
+        <v>0.1949715521039483</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3315173828046764</v>
+        <v>0.331776615310963</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1412611176096854</v>
+        <v>0.1378048924778797</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1599794311864521</v>
+        <v>0.1534154443841963</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1801881902640747</v>
+        <v>0.1740773486931054</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3219498483516435</v>
+        <v>0.3153570497273956</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.163334241626135</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2604263787996839</v>
+        <v>0.260426378799684</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1326118914929724</v>
@@ -829,7 +829,7 @@
         <v>0.1476921439711461</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2730197742404302</v>
+        <v>0.2730197742404303</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08061606787538404</v>
+        <v>0.08253399692513737</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1243418134136933</v>
+        <v>0.120414081151097</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1088870313860117</v>
+        <v>0.1053292587276713</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2140606947149829</v>
+        <v>0.219376434309034</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1340064158142412</v>
+        <v>0.1338747713190174</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.145405672316848</v>
+        <v>0.1411650945217217</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1259251649273143</v>
+        <v>0.1313861369436121</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2144836520510224</v>
+        <v>0.213459361015394</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1118118569953467</v>
+        <v>0.1135049806307733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1401058155752963</v>
+        <v>0.1394548410556535</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1262961340913404</v>
+        <v>0.1234384517562842</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2318982470924516</v>
+        <v>0.2292938646657471</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.131959235579013</v>
+        <v>0.1341306245074697</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2001506223720078</v>
+        <v>0.1932931053452957</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1700112505429769</v>
+        <v>0.1661697408552794</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3829460861167516</v>
+        <v>0.3860972434008138</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2050846216186548</v>
+        <v>0.2062191330416398</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2302513047891894</v>
+        <v>0.226471111500594</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.200348421037404</v>
+        <v>0.204887152069773</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3179581487374757</v>
+        <v>0.3228159712209003</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1555259239089649</v>
+        <v>0.155802978595648</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.198201775872655</v>
+        <v>0.1972406498911441</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1721633430943029</v>
+        <v>0.1723480082452327</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3275382776427672</v>
+        <v>0.3233928687531001</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1592996057184908</v>
+        <v>0.1637648811931482</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1877655667492219</v>
+        <v>0.1907304816142663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1651375918129073</v>
+        <v>0.1637609830864513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2769664553066183</v>
+        <v>0.2823623386668256</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2385116218011959</v>
+        <v>0.2370328464562244</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2419397961266686</v>
+        <v>0.2449301663423929</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.200736587510661</v>
+        <v>0.2028885240127324</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2782736444159996</v>
+        <v>0.2834982959636981</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2131691031259747</v>
+        <v>0.2135288722989693</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2263599708120499</v>
+        <v>0.2295358512084543</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1930512274747758</v>
+        <v>0.1935536984897911</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2985860205322488</v>
+        <v>0.2971887766242944</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2433989452289764</v>
+        <v>0.2492109902333736</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2747291119480261</v>
+        <v>0.2745433414664983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.244889241799557</v>
+        <v>0.2433350981105672</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4158419719178383</v>
+        <v>0.4112154978150613</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3277348628639927</v>
+        <v>0.3275631526706268</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.344453280789527</v>
+        <v>0.343500251897391</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2811523607912392</v>
+        <v>0.2787894266076138</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3811039308675833</v>
+        <v>0.3823233000322407</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2722570454410238</v>
+        <v>0.2752538230590292</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2927870040140564</v>
+        <v>0.293810011772521</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.249964211568052</v>
+        <v>0.2512897664058628</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3754223401637695</v>
+        <v>0.3771211516262974</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.4788620773267298</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7395972298957108</v>
+        <v>0.7395972298957106</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5422332113622353</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3995118390010023</v>
+        <v>0.386966799715582</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3286530851719791</v>
+        <v>0.32529044629829</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4119249282147678</v>
+        <v>0.4193086410292672</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6509320674753001</v>
+        <v>0.650012239199383</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4678807479489171</v>
+        <v>0.4686359111558957</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4651125199456147</v>
+        <v>0.4653106522362584</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.409536167220953</v>
+        <v>0.4139772015021048</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6320241594116887</v>
+        <v>0.6274787532593241</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4524914164467636</v>
+        <v>0.4485624332230291</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4169286242982021</v>
+        <v>0.412212446288303</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4335164690824759</v>
+        <v>0.4363345958628244</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6579426569135827</v>
+        <v>0.657900551295943</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5557128395197501</v>
+        <v>0.5464521412859479</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4562776291183258</v>
+        <v>0.4600386104793651</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5438094158439218</v>
+        <v>0.5447768507524918</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8400065558225968</v>
+        <v>0.8409813737024366</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6349126001724188</v>
+        <v>0.6298646897011536</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6171668753601961</v>
+        <v>0.6182932133454517</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5497867773440827</v>
+        <v>0.5517305526784152</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7690719135542086</v>
+        <v>0.763647132026756</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5640624797477377</v>
+        <v>0.5702600532701462</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5182971539718753</v>
+        <v>0.5111352048910465</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5309560808962731</v>
+        <v>0.526261131445989</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7730338647477103</v>
+        <v>0.778126657609445</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9455651523701994</v>
+        <v>0.9404849942669075</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9174205428255261</v>
+        <v>0.9176920845129365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8129182908579071</v>
+        <v>0.8241696278658651</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.142995365473125</v>
+        <v>1.136407694094751</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.05418308250251</v>
+        <v>1.050706381219745</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.131578733266176</v>
+        <v>1.144625770559803</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.021417322701564</v>
+        <v>1.0221137859759</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.105177472523165</v>
+        <v>1.102284167772418</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.031011430354889</v>
+        <v>1.03255622521563</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.059606021012094</v>
+        <v>1.064920131186615</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9512359672013083</v>
+        <v>0.9509678580039054</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.155042779767767</v>
+        <v>1.152813320390086</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.184969428275412</v>
+        <v>1.198025083153314</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.150528791219326</v>
+        <v>1.159015005285134</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.063059002224175</v>
+        <v>1.059175037219028</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.383280491847121</v>
+        <v>1.37667523810996</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.29826787969311</v>
+        <v>1.281402469858384</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.398355532792086</v>
+        <v>1.394009940436936</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.245253267774335</v>
+        <v>1.250360834505065</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.302580167204409</v>
+        <v>1.288183634797712</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.19929881654032</v>
+        <v>1.212423332479527</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.233334726919203</v>
+        <v>1.240205139377621</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.117539021646066</v>
+        <v>1.118100246928541</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.310712369916214</v>
+        <v>1.296805991277376</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>1.756089391617803</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>1.884873527955358</v>
+        <v>1.884873527955357</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>1.629160645686304</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.246488838065833</v>
+        <v>1.234815029030429</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.757963514697445</v>
+        <v>1.743517349101016</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.454362962767182</v>
+        <v>1.444503143802138</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.581713207265156</v>
+        <v>1.588344004459071</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.693881388781212</v>
+        <v>1.69918788728572</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.816026197716648</v>
+        <v>1.822875958725385</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.610462658581332</v>
+        <v>1.593431048098295</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>1.773317921014798</v>
+        <v>1.775556493985923</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.512476284880614</v>
+        <v>1.527046766278651</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.843455277401094</v>
+        <v>1.833677897718212</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.583791027279065</v>
+        <v>1.579715297886417</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>1.718419241750605</v>
+        <v>1.713576826847832</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.535586824138224</v>
+        <v>1.528351724484849</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.127726517904474</v>
+        <v>2.137513902481901</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.766822755830525</v>
+        <v>1.760667465527571</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.880416716157746</v>
+        <v>1.866977702063442</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2.000374511533435</v>
+        <v>1.995348167373262</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>2.124607745186019</v>
+        <v>2.124587283840844</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.926392113503563</v>
+        <v>1.923588285007056</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.005769101877785</v>
+        <v>2.02753731856734</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>1.739100781190833</v>
+        <v>1.75141576935435</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2.069678948464931</v>
+        <v>2.076497106753404</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.790460582965451</v>
+        <v>1.799366311980323</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>1.908947681232521</v>
+        <v>1.906639126692146</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.519396294734068</v>
+        <v>1.509956707546966</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.955458690544974</v>
+        <v>1.937944688430329</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.883136931012511</v>
+        <v>1.889996190716429</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.27653939863654</v>
+        <v>2.268654858279895</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.896308922600601</v>
+        <v>1.888075229782813</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.252389186225855</v>
+        <v>2.242729078437963</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.940277241473229</v>
+        <v>1.936173200129831</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.596877473630031</v>
+        <v>2.586774772103533</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.783173963370092</v>
+        <v>1.792441353238623</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2.178670538944792</v>
+        <v>2.179028699212542</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.954976229823331</v>
+        <v>1.956899194113183</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>2.507286889303337</v>
+        <v>2.517527621853857</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.886201058033536</v>
+        <v>1.885767354077887</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.354846703521902</v>
+        <v>2.343116865398828</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.218129913451555</v>
+        <v>2.203797262288553</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.642750502256129</v>
+        <v>2.655572754281176</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.224863359573972</v>
+        <v>2.215417451168057</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.570111596714543</v>
+        <v>2.569387398955062</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.264084778062498</v>
+        <v>2.272327624173565</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.880962942702288</v>
+        <v>2.868616975308413</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.035242069747232</v>
+        <v>2.026821502759626</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2.429624190240244</v>
+        <v>2.425529111848889</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2.193352226833384</v>
+        <v>2.203873385923059</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>2.734783329469656</v>
+        <v>2.728431053491563</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.6162753106086095</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9048399331896578</v>
+        <v>0.9048399331896579</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.7181474320547336</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4766884949692131</v>
+        <v>0.4757212244851498</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5815597649253101</v>
+        <v>0.5833750472025485</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5824306128811509</v>
+        <v>0.5805285975423201</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8540357121008401</v>
+        <v>0.8635513292632661</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6779141761518382</v>
+        <v>0.6805158011868064</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7699274764654565</v>
+        <v>0.7726672014735113</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.712501424224765</v>
+        <v>0.7177937783016389</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9628013652204522</v>
+        <v>0.9603236427676131</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5889729607274856</v>
+        <v>0.5892930811999064</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.6885072337109551</v>
+        <v>0.6913652356621813</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.6601236026201115</v>
+        <v>0.6611629038985655</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.9268794966456391</v>
+        <v>0.9257414242376906</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5419051649612215</v>
+        <v>0.5415930929578023</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6629424536582748</v>
+        <v>0.6619820547648844</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6526007285279052</v>
+        <v>0.6545949275998003</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9510207733117884</v>
+        <v>0.9557409041595341</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7573346087346515</v>
+        <v>0.7559177989174038</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8545870146093113</v>
+        <v>0.8583252801803125</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.798567759832443</v>
+        <v>0.8010826122297763</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>1.045630272672399</v>
+        <v>1.04641562827124</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.6411894307180539</v>
+        <v>0.6408974939160378</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7493006351482497</v>
+        <v>0.7517068885956999</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.7161187246032839</v>
+        <v>0.7149320910762947</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.9861909629418646</v>
+        <v>0.9884359869064571</v>
       </c>
     </row>
     <row r="28">
